--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,45 +446,50 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Họ và tên</t>
+          <t>Họ và Tên</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Lớp học phần</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Lớp học phần</t>
+          <t>Nhóm</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Nhóm</t>
+          <t>Lần học</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Lần học</t>
+          <t>GVHD</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>GVHD</t>
+          <t>Họ và Tên</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Khóa</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tổng số sinh viên</t>
         </is>
@@ -499,49 +504,54 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21IT262</t>
+          <t>21IT042</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LÊ VĂN</t>
+          <t>TÔN THẤT RÔN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BẢO</t>
+          <t>rontt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>baolv.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TÔN THẤT RÔN</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>70</v>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -553,50 +563,55 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21IT010</t>
+          <t>21IT051</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NGUYỄN MẠNH TRƯỜNG</t>
+          <t>NGUYỄN VĂN TRƯỜNG TIN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ĐẠT</t>
+          <t>tinnvt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>datnmt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN VĂN TRƯỜNG TIN</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21IT</t>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21IT - 70</t>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>21IT - 67</t>
         </is>
       </c>
     </row>
@@ -609,48 +624,53 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21IT045</t>
+          <t>21IT174</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TRỊNH THÁI</t>
+          <t>TRẦN VIẾT THUẬN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SƠN</t>
+          <t>thuantv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>sontt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRẦN VIẾT THUẬN</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -661,48 +681,53 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21IT049</t>
+          <t>21IT037</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀN</t>
+          <t>NGUYỄN LÊ TẤT PHÚ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>THIỆN</t>
+          <t>phunlt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>thiennh.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN LÊ TẤT PHÚ</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -713,48 +738,53 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21IT061</t>
+          <t>21IT631</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN TUẤN</t>
+          <t>HOÀNG VĂN NHẬT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BẢO</t>
+          <t>nhathv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>baonvt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>HOÀNG VĂN NHẬT</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -765,48 +795,53 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21IT196</t>
+          <t>21IT030</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TRẦN VĂN</t>
+          <t>PHAN THÀNH MINH</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DỤC</t>
+          <t>minhpt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ductv.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>PHAN THÀNH MINH</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -817,48 +852,53 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21IT033</t>
+          <t>21IT032</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NGUYỄN ĐĂNG</t>
+          <t>PHẠM VĂN NAM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NHÃ</t>
+          <t>nampv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>nhand.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>PHẠM VĂN NAM</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -869,48 +909,53 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21IT280</t>
+          <t>21IT040</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LÊ NGUYỄN QUỐC</t>
+          <t>NGUYỄN NGỌC PHƯƠNG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HUY</t>
+          <t>phuongnn.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>huylnq2.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN NGỌC PHƯƠNG</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -921,48 +966,53 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21IT017</t>
+          <t>21IT364</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BÙI THỊ PHƯƠNG</t>
+          <t>NGUYỄN THÀNH NHÂN</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HÀ</t>
+          <t>nhannt3.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>habtp.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN THÀNH NHÂN</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -973,48 +1023,53 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21IT001</t>
+          <t>21IT002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LÊ TUẤN</t>
+          <t>NGÔ THẾ ANH</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ANH</t>
+          <t>anhnt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>anhlt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGÔ THẾ ANH</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1025,48 +1080,53 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21IT052</t>
+          <t>21IT023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LÊ KIM HOÀNG</t>
+          <t>MAI QUỐC HUY</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TRUNG</t>
+          <t>huymq.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>trunglkh.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>MAI QUỐC HUY</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1077,48 +1137,53 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21IT076</t>
+          <t>21IT029</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PHAN ĐỨC</t>
+          <t>LÊ THỊ BÌNH MINH</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HOÀNG</t>
+          <t>minhltb.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>hoangpd.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ THỊ BÌNH MINH</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1129,48 +1194,53 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21IT046</t>
+          <t>21IT004</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CAO MINH</t>
+          <t>HỒ NGUYÊN BẢNG</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TÂM</t>
+          <t>banghn.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>tamcm.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>HỒ NGUYÊN BẢNG</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1181,48 +1251,53 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21IT008</t>
+          <t>21IT021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ĐỖ HOÀNG HẢI</t>
+          <t>LÊ NGUYỄN QUỐC HUY</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ĐĂNG</t>
+          <t>huylnq.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>dangdhh.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ NGUYỄN QUỐC HUY</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1233,48 +1308,53 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21IT041</t>
+          <t>21IT059</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NGUYỄN THIỆN</t>
+          <t>TRƯƠNG BÁ VƯƠNG</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>QUANG</t>
+          <t>vuongtb.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>quangnt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRƯƠNG BÁ VƯƠNG</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1285,48 +1365,53 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21IT038</t>
+          <t>21IT005</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HÀ CẢNH HỒNG</t>
+          <t>TRẦN CÔNG BẢO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PHÚC</t>
+          <t>baotc.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>phuchch.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRẦN CÔNG BẢO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1337,48 +1422,53 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21IT006</t>
+          <t>21IT145</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LÊ NGUYỄN VĂN</t>
+          <t>NGUYỄN DANH HUY</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CƯỜNG</t>
+          <t>huynd.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>cuonglnv.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN DANH HUY</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1389,48 +1479,53 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21IT014</t>
+          <t>21IT009</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TRƯƠNG THẾ QUỐC</t>
+          <t>LÊ KHÁNH ĐẠT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DŨNG</t>
+          <t>datlk.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>dungttq.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ KHÁNH ĐẠT</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1441,48 +1536,53 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21IT043</t>
+          <t>21IT011</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PHÙNG ANH</t>
+          <t>TRẦN KHÁNH DIỄN</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SANG</t>
+          <t>dientk.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>sangpa.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRẦN KHÁNH DIỄN</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1493,48 +1593,53 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21IT055</t>
+          <t>21IT054</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VÕ VĂN</t>
+          <t>NGUYỄN HỮU TUẤN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TUẤN</t>
+          <t>tuannh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>tuanvv.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN HỮU TUẤN</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1545,48 +1650,53 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21IT304</t>
+          <t>21IT039</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN</t>
+          <t>NGUYỄN BÙI NAM PHÚC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SANG</t>
+          <t>phucnbn.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>sangnt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN BÙI NAM PHÚC</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1597,48 +1707,53 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21IT026</t>
+          <t>21IT003</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PHẠM ĐĂNG</t>
+          <t>TRẦN NGUYÊN ANH</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KHOA</t>
+          <t>anhtn.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>khoapd.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRẦN NGUYÊN ANH</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1649,48 +1764,53 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21IT025</t>
+          <t>21IT019</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VĨNH PHÚC KIẾN</t>
+          <t>NGUYỄN HUY HOÀNG</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KHANG</t>
+          <t>hoangnh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>khangvpk.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN HUY HOÀNG</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1701,48 +1821,53 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21IT002</t>
+          <t>21IT058</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NGÔ THẾ</t>
+          <t>NGUYỄN VĂN THÀNH VINH</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ANH</t>
+          <t>vinhnvt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>anhnt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN VĂN THÀNH VINH</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1753,48 +1878,53 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21IT012</t>
+          <t>21IT057</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN</t>
+          <t>NGUYỄN HỒNG VÂN</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DŨNG</t>
+          <t>vannh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>dungnv.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN HỒNG VÂN</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1805,44 +1935,53 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21IT031</t>
+          <t>21IT036</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CAO MY</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>DOÃN CÁT PHÚ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>phudc.21it@vku.udn.vn</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>nacm.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>DOÃN CÁT PHÚ</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1853,48 +1992,53 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21IT051</t>
+          <t>21IT659</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN TRƯỜNG</t>
+          <t>HỒ THANH TÚ</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TIN</t>
+          <t>tuht.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>tinnvt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>HỒ THANH TÚ</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1905,48 +2049,53 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21IT024</t>
+          <t>21IT007</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VÕ TẤN</t>
+          <t>NGUYỄN ĐẠI CƯỜNG</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HUY</t>
+          <t>cuongnd.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>huyvt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN ĐẠI CƯỜNG</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1957,48 +2106,53 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21IT030</t>
+          <t>21IT053</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PHAN THÀNH</t>
+          <t>PHẠM QUANG TRUNG</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MINH</t>
+          <t>trungpq.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>minhpt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>PHẠM QUANG TRUNG</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2009,48 +2163,53 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>21IT040</t>
+          <t>21IT015</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NGUYỄN NGỌC</t>
+          <t>NGUYỄN THÁI KHÁNH DUY</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PHƯƠNG</t>
+          <t>duyntk.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>phuongnn.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN THÁI KHÁNH DUY</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2061,48 +2220,53 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>21IT393</t>
+          <t>21IT022</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TRẦN VĂN ĐỨC</t>
+          <t>LÊ THỪA QUỐC HUY</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ANH</t>
+          <t>huyltq.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>anhtvd.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ THỪA QUỐC HUY</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2113,48 +2277,53 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>21IT042</t>
+          <t>21IT049</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TÔN THẤT</t>
+          <t>NGUYỄN HOÀN THIỆN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RÔN</t>
+          <t>thiennh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>rontt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN HOÀN THIỆN</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2165,48 +2334,53 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>21IT037</t>
+          <t>21IT008</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NGUYỄN LÊ TẤT</t>
+          <t>ĐỖ HOÀNG HẢI ĐĂNG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PHÚ</t>
+          <t>dangdhh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>phunlt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>ĐỖ HOÀNG HẢI ĐĂNG</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2217,48 +2391,53 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21IT004</t>
+          <t>21IT016</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HỒ NGUYÊN</t>
+          <t>TRƯƠNG THỊ HƯƠNG GIANG</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>BẢNG</t>
+          <t>giangtth.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>banghn.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRƯƠNG THỊ HƯƠNG GIANG</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2269,48 +2448,53 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21IT032</t>
+          <t>21IT020</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PHẠM VĂN</t>
+          <t>NGUYỄN VĂN HÙNG</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>hungnv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>nampv.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN VĂN HÙNG</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2321,48 +2505,53 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21IT021</t>
+          <t>21IT027</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LÊ NGUYỄN QUỐC</t>
+          <t>TRẦN NHẬT LINH</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>HUY</t>
+          <t>linhtn.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>huylnq.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRẦN NHẬT LINH</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2373,48 +2562,53 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21IT005</t>
+          <t>21IT060</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TRẦN CÔNG</t>
+          <t>LÊ TRỌNG VƯỢNG</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BẢO</t>
+          <t>vuonglt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>baotc.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ TRỌNG VƯỢNG</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2425,48 +2619,53 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21IT059</t>
+          <t>21IT028</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TRƯƠNG BÁ</t>
+          <t>LÊ BẢO MINH</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VƯƠNG</t>
+          <t>minhlb.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>vuongtb.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ BẢO MINH</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2477,48 +2676,53 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>21IT023</t>
+          <t>21IT010</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MAI QUỐC</t>
+          <t>NGUYỄN MẠNH TRƯỜNG ĐẠT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HUY</t>
+          <t>datnmt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>huymq.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN MẠNH TRƯỜNG ĐẠT</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2529,48 +2733,53 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>21IT029</t>
+          <t>21IT033</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LÊ THỊ BÌNH</t>
+          <t>NGUYỄN ĐĂNG NHÃ</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MINH</t>
+          <t>nhand.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>minhltb.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN ĐĂNG NHÃ</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2581,48 +2790,53 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>21IT364</t>
+          <t>21IT262</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NGUYỄN THÀNH</t>
+          <t>LÊ VĂN BẢO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NHÂN</t>
+          <t>baolv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>nhannt3.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ VĂN BẢO</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2633,48 +2847,53 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21IT174</t>
+          <t>21IT045</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TRẦN VIẾT</t>
+          <t>TRỊNH THÁI SƠN</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>THUẬN</t>
+          <t>sontt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>thuantv.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRỊNH THÁI SƠN</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2685,48 +2904,53 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21IT048</t>
+          <t>21IT013</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LÊ MINH</t>
+          <t>TRƯƠNG ĐÌNH DŨNG</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>THẾ</t>
+          <t>dungtd.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>thelm.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRƯƠNG ĐÌNH DŨNG</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2737,48 +2961,53 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>21IT060</t>
+          <t>21IT048</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LÊ TRỌNG</t>
+          <t>LÊ MINH THẾ</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>VƯỢNG</t>
+          <t>thelm.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>vuonglt.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ MINH THẾ</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2789,48 +3018,53 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21IT315</t>
+          <t>21IT001</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PHÙNG VĂN</t>
+          <t>LÊ TUẤN ANH</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>THỰC</t>
+          <t>anhlt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>thucpv.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ TUẤN ANH</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2841,48 +3075,53 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21IT109</t>
+          <t>21IT315</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NGUYỄN HỮU</t>
+          <t>PHÙNG VĂN THỰC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>THỨC</t>
+          <t>thucpv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>thucnh.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>PHÙNG VĂN THỰC</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2893,48 +3132,53 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21IT659</t>
+          <t>21IT196</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HỒ THANH</t>
+          <t>TRẦN VĂN DỤC</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TÚ</t>
+          <t>ductv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>tuht.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRẦN VĂN DỤC</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2945,48 +3189,53 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>21IT039</t>
+          <t>21IT017</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NGUYỄN BÙI NAM</t>
+          <t>BÙI THỊ PHƯƠNG HÀ</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PHÚC</t>
+          <t>habtp.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>phucnbn.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>BÙI THỊ PHƯƠNG HÀ</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2997,48 +3246,53 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>21IT292</t>
+          <t>21IT076</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TRẦN</t>
+          <t>PHAN ĐỨC HOÀNG</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MẪN</t>
+          <t>hoangpd.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>mant.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>PHAN ĐỨC HOÀNG</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3049,48 +3303,53 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>21IT003</t>
+          <t>21IT061</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TRẦN NGUYÊN</t>
+          <t>NGUYỄN VĂN TUẤN BẢO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ANH</t>
+          <t>baonvt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>anhtn.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN VĂN TUẤN BẢO</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3101,48 +3360,53 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>21IT054</t>
+          <t>21IT280</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NGUYỄN HỮU</t>
+          <t>LÊ NGUYỄN QUỐC HUY</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TUẤN</t>
+          <t>huylnq2.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>tuannh.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ NGUYỄN QUỐC HUY</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3153,48 +3417,53 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>21IT009</t>
+          <t>21IT014</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LÊ KHÁNH</t>
+          <t>TRƯƠNG THẾ QUỐC DŨNG</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ĐẠT</t>
+          <t>dungttq.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>datlk.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRƯƠNG THẾ QUỐC DŨNG</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3205,48 +3474,53 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>21IT053</t>
+          <t>21IT046</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PHẠM QUANG</t>
+          <t>CAO MINH TÂM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TRUNG</t>
+          <t>tamcm.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>trungpq.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>CAO MINH TÂM</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3257,48 +3531,53 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>21IT610</t>
+          <t>21IT052</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN</t>
+          <t>LÊ KIM HOÀNG TRUNG</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>HIẾU</t>
+          <t>trunglkh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>hieunv2.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ KIM HOÀNG TRUNG</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3309,48 +3588,53 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>21IT011</t>
+          <t>21IT041</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TRẦN KHÁNH</t>
+          <t>NGUYỄN THIỆN QUANG</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DIỄN</t>
+          <t>quangnt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>dientk.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN THIỆN QUANG</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3361,48 +3645,53 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>21IT007</t>
+          <t>21IT006</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NGUYỄN ĐẠI</t>
+          <t>LÊ NGUYỄN VĂN CƯỜNG</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CƯỜNG</t>
+          <t>cuonglnv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>cuongnd.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ NGUYỄN VĂN CƯỜNG</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3413,48 +3702,53 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>21IT019</t>
+          <t>21IT018</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NGUYỄN HUY</t>
+          <t>LÊ VĂN HẢI</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>HOÀNG</t>
+          <t>hailv2.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>hoangnh.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>LÊ VĂN HẢI</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3465,48 +3759,53 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>21IT018</t>
+          <t>21IT026</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LÊ VĂN</t>
+          <t>PHẠM ĐĂNG KHOA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>HẢI</t>
+          <t>khoapd.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>hailv2.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>PHẠM ĐĂNG KHOA</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3517,48 +3816,53 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>21IT015</t>
+          <t>21IT304</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NGUYỄN THÁI KHÁNH</t>
+          <t>NGUYỄN TUẤN SANG</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DUY</t>
+          <t>sangnt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>duyntk.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN TUẤN SANG</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3569,48 +3873,53 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>21IT057</t>
+          <t>21IT025</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NGUYỄN HỒNG</t>
+          <t>VĨNH PHÚC KIẾN KHANG</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>VÂN</t>
+          <t>khangvpk.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>vannh.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>VĨNH PHÚC KIẾN KHANG</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3621,48 +3930,53 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>21IT036</t>
+          <t>21IT038</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>DOÃN CÁT</t>
+          <t>HÀ CẢNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PHÚ</t>
+          <t>phuchch.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>phudc.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>HÀ CẢNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3673,48 +3987,53 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>21IT016</t>
+          <t>21IT055</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TRƯƠNG THỊ HƯƠNG</t>
+          <t>VÕ VĂN TUẤN</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>GIANG</t>
+          <t>tuanvv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>giangtth.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>VÕ VĂN TUẤN</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3725,48 +4044,53 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>21IT022</t>
+          <t>21IT012</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LÊ THỪA QUỐC</t>
+          <t>NGUYỄN VĂN DŨNG</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>HUY</t>
+          <t>dungnv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>huyltq.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>NGUYỄN VĂN DŨNG</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3777,48 +4101,53 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>21IT552</t>
+          <t>21IT031</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TRẦN DUY BẢO</t>
+          <t>CAO MY NA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>HOÀNG</t>
+          <t>nacm.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>hoangtdb.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>CAO MY NA</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3829,48 +4158,53 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>21IT020</t>
+          <t>21IT043</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN</t>
+          <t>PHÙNG ANH SANG</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>HÙNG</t>
+          <t>sangpa.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>hungnv.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>PHÙNG ANH SANG</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3881,48 +4215,53 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>21IT028</t>
+          <t>21IT393</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LÊ BẢO</t>
+          <t>TRẦN VĂN ĐỨC ANH</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MINH</t>
+          <t>anhtvd.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>minhlb.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>TRẦN VĂN ĐỨC ANH</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3933,204 +4272,53 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>21IT138</t>
+          <t>21IT024</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ĐÀM NGUYÊN</t>
+          <t>VÕ TẤN HUY</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>HOÀNG</t>
+          <t>huyvt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>hoangdn.21it@vku.udn.vn</t>
+          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Đinh Thị Đông Phương</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Dương Thị Mai Nga</t>
+          <t>VÕ TẤN HUY</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>21IT058</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>NGUYỄN VĂN THÀNH</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>VINH</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>vinhnvt.21it@vku.udn.vn</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Dương Thị Mai Nga</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>21IT013</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>TRƯƠNG ĐÌNH</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>DŨNG</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>dungtd.21it@vku.udn.vn</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Dương Thị Mai Nga</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>21IT027</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>TRẦN NHẬT</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>LINH</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>linhtn.21it@vku.udn.vn</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1_GIT</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Dương Thị Mai Nga</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>21IT</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
+          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,27 +504,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21IT042</t>
+          <t>21IT262</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TÔN THẤT RÔN</t>
+          <t>LÊ VĂN BẢO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>rontt.21it@vku.udn.vn</t>
+          <t>baolv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -532,17 +532,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>TÔN THẤT RÔN</t>
+          <t>LÊ VĂN BẢO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -563,27 +563,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21IT051</t>
+          <t>21IT010</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN TRƯỜNG TIN</t>
+          <t>NGUYỄN MẠNH TRƯỜNG ĐẠT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>tinnvt.21it@vku.udn.vn</t>
+          <t>datnmt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -591,17 +591,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN TRƯỜNG TIN</t>
+          <t>NGUYỄN MẠNH TRƯỜNG ĐẠT</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21IT - 67</t>
+          <t>21IT - 70</t>
         </is>
       </c>
     </row>
@@ -624,27 +624,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21IT174</t>
+          <t>21IT045</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TRẦN VIẾT THUẬN</t>
+          <t>TRỊNH THÁI SƠN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>thuantv.21it@vku.udn.vn</t>
+          <t>sontt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -652,17 +652,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>TRẦN VIẾT THUẬN</t>
+          <t>TRỊNH THÁI SƠN</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -681,27 +681,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21IT037</t>
+          <t>21IT049</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NGUYỄN LÊ TẤT PHÚ</t>
+          <t>NGUYỄN HOÀN THIỆN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>phunlt.21it@vku.udn.vn</t>
+          <t>thiennh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -709,17 +709,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>NGUYỄN LÊ TẤT PHÚ</t>
+          <t>NGUYỄN HOÀN THIỆN</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -738,27 +738,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21IT631</t>
+          <t>21IT061</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HOÀNG VĂN NHẬT</t>
+          <t>NGUYỄN VĂN TUẤN BẢO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>nhathv.21it@vku.udn.vn</t>
+          <t>baonvt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -766,17 +766,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>HOÀNG VĂN NHẬT</t>
+          <t>NGUYỄN VĂN TUẤN BẢO</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -795,27 +795,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21IT030</t>
+          <t>21IT196</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PHAN THÀNH MINH</t>
+          <t>TRẦN VĂN DỤC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>minhpt.21it@vku.udn.vn</t>
+          <t>ductv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -823,17 +823,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>PHAN THÀNH MINH</t>
+          <t>TRẦN VĂN DỤC</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -852,27 +852,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21IT032</t>
+          <t>21IT033</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PHẠM VĂN NAM</t>
+          <t>NGUYỄN ĐĂNG NHÃ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>nampv.21it@vku.udn.vn</t>
+          <t>nhand.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -880,17 +880,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>PHẠM VĂN NAM</t>
+          <t>NGUYỄN ĐĂNG NHÃ</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -909,27 +909,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21IT040</t>
+          <t>21IT280</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NGUYỄN NGỌC PHƯƠNG</t>
+          <t>LÊ NGUYỄN QUỐC HUY</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>phuongnn.21it@vku.udn.vn</t>
+          <t>huylnq2.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -937,17 +937,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>NGUYỄN NGỌC PHƯƠNG</t>
+          <t>LÊ NGUYỄN QUỐC HUY</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -966,27 +966,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21IT364</t>
+          <t>21IT017</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NGUYỄN THÀNH NHÂN</t>
+          <t>BÙI THỊ PHƯƠNG HÀ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>nhannt3.21it@vku.udn.vn</t>
+          <t>habtp.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -994,17 +994,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>NGUYỄN THÀNH NHÂN</t>
+          <t>BÙI THỊ PHƯƠNG HÀ</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1023,27 +1023,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21IT002</t>
+          <t>21IT001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NGÔ THẾ ANH</t>
+          <t>LÊ TUẤN ANH</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>anhnt.21it@vku.udn.vn</t>
+          <t>anhlt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>NGÔ THẾ ANH</t>
+          <t>LÊ TUẤN ANH</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1080,27 +1080,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21IT023</t>
+          <t>21IT052</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MAI QUỐC HUY</t>
+          <t>LÊ KIM HOÀNG TRUNG</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>huymq.21it@vku.udn.vn</t>
+          <t>trunglkh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>MAI QUỐC HUY</t>
+          <t>LÊ KIM HOÀNG TRUNG</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1137,27 +1137,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21IT029</t>
+          <t>21IT076</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LÊ THỊ BÌNH MINH</t>
+          <t>PHAN ĐỨC HOÀNG</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>minhltb.21it@vku.udn.vn</t>
+          <t>hoangpd.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LÊ THỊ BÌNH MINH</t>
+          <t>PHAN ĐỨC HOÀNG</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1194,27 +1194,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21IT004</t>
+          <t>21IT046</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HỒ NGUYÊN BẢNG</t>
+          <t>CAO MINH TÂM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>banghn.21it@vku.udn.vn</t>
+          <t>tamcm.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>HỒ NGUYÊN BẢNG</t>
+          <t>CAO MINH TÂM</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1251,27 +1251,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21IT021</t>
+          <t>21IT008</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LÊ NGUYỄN QUỐC HUY</t>
+          <t>ĐỖ HOÀNG HẢI ĐĂNG</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>huylnq.21it@vku.udn.vn</t>
+          <t>dangdhh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1279,17 +1279,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>LÊ NGUYỄN QUỐC HUY</t>
+          <t>ĐỖ HOÀNG HẢI ĐĂNG</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1308,27 +1308,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21IT059</t>
+          <t>21IT041</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TRƯƠNG BÁ VƯƠNG</t>
+          <t>NGUYỄN THIỆN QUANG</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>vuongtb.21it@vku.udn.vn</t>
+          <t>quangnt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1336,17 +1336,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>TRƯƠNG BÁ VƯƠNG</t>
+          <t>NGUYỄN THIỆN QUANG</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1365,27 +1365,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21IT005</t>
+          <t>21IT038</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TRẦN CÔNG BẢO</t>
+          <t>HÀ CẢNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>baotc.21it@vku.udn.vn</t>
+          <t>phuchch.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>TRẦN CÔNG BẢO</t>
+          <t>HÀ CẢNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1422,27 +1422,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21IT145</t>
+          <t>21IT006</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NGUYỄN DANH HUY</t>
+          <t>LÊ NGUYỄN VĂN CƯỜNG</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>huynd.21it@vku.udn.vn</t>
+          <t>cuonglnv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1450,17 +1450,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>NGUYỄN DANH HUY</t>
+          <t>LÊ NGUYỄN VĂN CƯỜNG</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1479,27 +1479,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21IT009</t>
+          <t>21IT014</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LÊ KHÁNH ĐẠT</t>
+          <t>TRƯƠNG THẾ QUỐC DŨNG</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>datlk.21it@vku.udn.vn</t>
+          <t>dungttq.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1507,17 +1507,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>LÊ KHÁNH ĐẠT</t>
+          <t>TRƯƠNG THẾ QUỐC DŨNG</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1536,27 +1536,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21IT011</t>
+          <t>21IT043</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TRẦN KHÁNH DIỄN</t>
+          <t>PHÙNG ANH SANG</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>dientk.21it@vku.udn.vn</t>
+          <t>sangpa.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>TRẦN KHÁNH DIỄN</t>
+          <t>PHÙNG ANH SANG</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21IT054</t>
+          <t>21IT055</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NGUYỄN HỮU TUẤN</t>
+          <t>VÕ VĂN TUẤN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>tuannh.21it@vku.udn.vn</t>
+          <t>tuanvv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1621,17 +1621,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>NGUYỄN HỮU TUẤN</t>
+          <t>VÕ VĂN TUẤN</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1650,27 +1650,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21IT039</t>
+          <t>21IT304</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NGUYỄN BÙI NAM PHÚC</t>
+          <t>NGUYỄN TUẤN SANG</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>phucnbn.21it@vku.udn.vn</t>
+          <t>sangnt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1678,17 +1678,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>NGUYỄN BÙI NAM PHÚC</t>
+          <t>NGUYỄN TUẤN SANG</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1707,27 +1707,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21IT003</t>
+          <t>21IT026</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TRẦN NGUYÊN ANH</t>
+          <t>PHẠM ĐĂNG KHOA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>anhtn.21it@vku.udn.vn</t>
+          <t>khoapd.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1735,17 +1735,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>TRẦN NGUYÊN ANH</t>
+          <t>PHẠM ĐĂNG KHOA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1764,27 +1764,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21IT019</t>
+          <t>21IT025</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NGUYỄN HUY HOÀNG</t>
+          <t>VĨNH PHÚC KIẾN KHANG</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>hoangnh.21it@vku.udn.vn</t>
+          <t>khangvpk.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>NGUYỄN HUY HOÀNG</t>
+          <t>VĨNH PHÚC KIẾN KHANG</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1821,27 +1821,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21IT058</t>
+          <t>21IT002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN THÀNH VINH</t>
+          <t>NGÔ THẾ ANH</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>vinhnvt.21it@vku.udn.vn</t>
+          <t>anhnt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1849,17 +1849,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN THÀNH VINH</t>
+          <t>NGÔ THẾ ANH</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1878,27 +1878,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21IT057</t>
+          <t>21IT012</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NGUYỄN HỒNG VÂN</t>
+          <t>NGUYỄN VĂN DŨNG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>vannh.21it@vku.udn.vn</t>
+          <t>dungnv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1906,17 +1906,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>NGUYỄN HỒNG VÂN</t>
+          <t>NGUYỄN VĂN DŨNG</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1935,27 +1935,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21IT036</t>
+          <t>21IT031</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DOÃN CÁT PHÚ</t>
+          <t>CAO MY NA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>phudc.21it@vku.udn.vn</t>
+          <t>nacm.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1963,17 +1963,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DOÃN CÁT PHÚ</t>
+          <t>CAO MY NA</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1992,27 +1992,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21IT659</t>
+          <t>21IT051</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HỒ THANH TÚ</t>
+          <t>NGUYỄN VĂN TRƯỜNG TIN</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>tuht.21it@vku.udn.vn</t>
+          <t>tinnvt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>HỒ THANH TÚ</t>
+          <t>NGUYỄN VĂN TRƯỜNG TIN</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2049,27 +2049,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21IT007</t>
+          <t>21IT024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NGUYỄN ĐẠI CƯỜNG</t>
+          <t>VÕ TẤN HUY</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuongnd.21it@vku.udn.vn</t>
+          <t>huyvt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2077,17 +2077,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>NGUYỄN ĐẠI CƯỜNG</t>
+          <t>VÕ TẤN HUY</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2106,27 +2106,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21IT053</t>
+          <t>21IT030</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PHẠM QUANG TRUNG</t>
+          <t>PHAN THÀNH MINH</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>trungpq.21it@vku.udn.vn</t>
+          <t>minhpt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2134,17 +2134,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>PHẠM QUANG TRUNG</t>
+          <t>PHAN THÀNH MINH</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2163,27 +2163,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>21IT015</t>
+          <t>21IT040</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NGUYỄN THÁI KHÁNH DUY</t>
+          <t>NGUYỄN NGỌC PHƯƠNG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>duyntk.21it@vku.udn.vn</t>
+          <t>phuongnn.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2191,17 +2191,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>NGUYỄN THÁI KHÁNH DUY</t>
+          <t>NGUYỄN NGỌC PHƯƠNG</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2220,27 +2220,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>21IT022</t>
+          <t>21IT393</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LÊ THỪA QUỐC HUY</t>
+          <t>TRẦN VĂN ĐỨC ANH</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>huyltq.21it@vku.udn.vn</t>
+          <t>anhtvd.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2248,17 +2248,17 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>LÊ THỪA QUỐC HUY</t>
+          <t>TRẦN VĂN ĐỨC ANH</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2277,27 +2277,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>21IT049</t>
+          <t>21IT042</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀN THIỆN</t>
+          <t>TÔN THẤT RÔN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>thiennh.21it@vku.udn.vn</t>
+          <t>rontt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2305,17 +2305,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀN THIỆN</t>
+          <t>TÔN THẤT RÔN</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2334,27 +2334,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>21IT008</t>
+          <t>21IT037</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ĐỖ HOÀNG HẢI ĐĂNG</t>
+          <t>NGUYỄN LÊ TẤT PHÚ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>dangdhh.21it@vku.udn.vn</t>
+          <t>phunlt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2362,17 +2362,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ĐỖ HOÀNG HẢI ĐĂNG</t>
+          <t>NGUYỄN LÊ TẤT PHÚ</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2391,27 +2391,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21IT016</t>
+          <t>21IT004</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TRƯƠNG THỊ HƯƠNG GIANG</t>
+          <t>HỒ NGUYÊN BẢNG</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>giangtth.21it@vku.udn.vn</t>
+          <t>banghn.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -2419,17 +2419,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>TRƯƠNG THỊ HƯƠNG GIANG</t>
+          <t>HỒ NGUYÊN BẢNG</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2448,27 +2448,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21IT020</t>
+          <t>21IT032</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN HÙNG</t>
+          <t>PHẠM VĂN NAM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>hungnv.21it@vku.udn.vn</t>
+          <t>nampv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN HÙNG</t>
+          <t>PHẠM VĂN NAM</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2505,27 +2505,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21IT027</t>
+          <t>21IT021</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TRẦN NHẬT LINH</t>
+          <t>LÊ NGUYỄN QUỐC HUY</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>linhtn.21it@vku.udn.vn</t>
+          <t>huylnq.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2533,17 +2533,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>TRẦN NHẬT LINH</t>
+          <t>LÊ NGUYỄN QUỐC HUY</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2562,27 +2562,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21IT060</t>
+          <t>21IT005</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LÊ TRỌNG VƯỢNG</t>
+          <t>TRẦN CÔNG BẢO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>vuonglt.21it@vku.udn.vn</t>
+          <t>baotc.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2590,17 +2590,17 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>LÊ TRỌNG VƯỢNG</t>
+          <t>TRẦN CÔNG BẢO</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2619,27 +2619,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21IT028</t>
+          <t>21IT059</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LÊ BẢO MINH</t>
+          <t>TRƯƠNG BÁ VƯƠNG</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>minhlb.21it@vku.udn.vn</t>
+          <t>vuongtb.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2647,17 +2647,17 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>LÊ BẢO MINH</t>
+          <t>TRƯƠNG BÁ VƯƠNG</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2676,27 +2676,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>21IT010</t>
+          <t>21IT023</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NGUYỄN MẠNH TRƯỜNG ĐẠT</t>
+          <t>MAI QUỐC HUY</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>datnmt.21it@vku.udn.vn</t>
+          <t>huymq.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2704,17 +2704,17 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>NGUYỄN MẠNH TRƯỜNG ĐẠT</t>
+          <t>MAI QUỐC HUY</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2733,27 +2733,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>21IT033</t>
+          <t>21IT029</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NGUYỄN ĐĂNG NHÃ</t>
+          <t>LÊ THỊ BÌNH MINH</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>nhand.21it@vku.udn.vn</t>
+          <t>minhltb.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>NGUYỄN ĐĂNG NHÃ</t>
+          <t>LÊ THỊ BÌNH MINH</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2790,27 +2790,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>21IT262</t>
+          <t>21IT364</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LÊ VĂN BẢO</t>
+          <t>NGUYỄN THÀNH NHÂN</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>baolv.21it@vku.udn.vn</t>
+          <t>nhannt3.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2818,17 +2818,17 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>LÊ VĂN BẢO</t>
+          <t>NGUYỄN THÀNH NHÂN</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2847,27 +2847,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21IT045</t>
+          <t>21IT174</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TRỊNH THÁI SƠN</t>
+          <t>TRẦN VIẾT THUẬN</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sontt.21it@vku.udn.vn</t>
+          <t>thuantv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2875,17 +2875,17 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>TRỊNH THÁI SƠN</t>
+          <t>TRẦN VIẾT THUẬN</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2904,27 +2904,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21IT013</t>
+          <t>21IT048</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TRƯƠNG ĐÌNH DŨNG</t>
+          <t>LÊ MINH THẾ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>dungtd.21it@vku.udn.vn</t>
+          <t>thelm.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2932,17 +2932,17 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>TRƯƠNG ĐÌNH DŨNG</t>
+          <t>LÊ MINH THẾ</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2961,27 +2961,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>21IT048</t>
+          <t>21IT060</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LÊ MINH THẾ</t>
+          <t>LÊ TRỌNG VƯỢNG</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>thelm.21it@vku.udn.vn</t>
+          <t>vuonglt.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2989,17 +2989,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>LÊ MINH THẾ</t>
+          <t>LÊ TRỌNG VƯỢNG</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3018,27 +3018,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21IT001</t>
+          <t>21IT315</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LÊ TUẤN ANH</t>
+          <t>PHÙNG VĂN THỰC</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>anhlt.21it@vku.udn.vn</t>
+          <t>thucpv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -3046,17 +3046,17 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>LÊ TUẤN ANH</t>
+          <t>PHÙNG VĂN THỰC</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3075,27 +3075,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21IT315</t>
+          <t>21IT109</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PHÙNG VĂN THỰC</t>
+          <t>NGUYỄN HỮU THỨC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>thucpv.21it@vku.udn.vn</t>
+          <t>thucnh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -3103,17 +3103,17 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>PHÙNG VĂN THỰC</t>
+          <t>NGUYỄN HỮU THỨC</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3132,27 +3132,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21IT196</t>
+          <t>21IT659</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TRẦN VĂN DỤC</t>
+          <t>HỒ THANH TÚ</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ductv.21it@vku.udn.vn</t>
+          <t>tuht.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -3160,17 +3160,17 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>TRẦN VĂN DỤC</t>
+          <t>HỒ THANH TÚ</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3189,27 +3189,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>21IT017</t>
+          <t>21IT039</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>BÙI THỊ PHƯƠNG HÀ</t>
+          <t>NGUYỄN BÙI NAM PHÚC</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>habtp.21it@vku.udn.vn</t>
+          <t>phucnbn.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3217,17 +3217,17 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>BÙI THỊ PHƯƠNG HÀ</t>
+          <t>NGUYỄN BÙI NAM PHÚC</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3246,27 +3246,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>21IT076</t>
+          <t>21IT292</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PHAN ĐỨC HOÀNG</t>
+          <t>TRẦN MẪN</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>hoangpd.21it@vku.udn.vn</t>
+          <t>mant.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -3274,17 +3274,17 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>PHAN ĐỨC HOÀNG</t>
+          <t>TRẦN MẪN</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3303,27 +3303,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>21IT061</t>
+          <t>21IT003</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN TUẤN BẢO</t>
+          <t>TRẦN NGUYÊN ANH</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>baonvt.21it@vku.udn.vn</t>
+          <t>anhtn.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -3331,17 +3331,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN TUẤN BẢO</t>
+          <t>TRẦN NGUYÊN ANH</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3360,27 +3360,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>21IT280</t>
+          <t>21IT054</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LÊ NGUYỄN QUỐC HUY</t>
+          <t>NGUYỄN HỮU TUẤN</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>huylnq2.21it@vku.udn.vn</t>
+          <t>tuannh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -3388,17 +3388,17 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>LÊ NGUYỄN QUỐC HUY</t>
+          <t>NGUYỄN HỮU TUẤN</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3417,27 +3417,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>21IT014</t>
+          <t>21IT009</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TRƯƠNG THẾ QUỐC DŨNG</t>
+          <t>LÊ KHÁNH ĐẠT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>dungttq.21it@vku.udn.vn</t>
+          <t>datlk.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3445,17 +3445,17 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>TRƯƠNG THẾ QUỐC DŨNG</t>
+          <t>LÊ KHÁNH ĐẠT</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3474,27 +3474,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>21IT046</t>
+          <t>21IT053</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CAO MINH TÂM</t>
+          <t>PHẠM QUANG TRUNG</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>tamcm.21it@vku.udn.vn</t>
+          <t>trungpq.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -3502,17 +3502,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>CAO MINH TÂM</t>
+          <t>PHẠM QUANG TRUNG</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3531,27 +3531,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>21IT052</t>
+          <t>21IT610</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LÊ KIM HOÀNG TRUNG</t>
+          <t>NGUYỄN VĂN HIẾU</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>trunglkh.21it@vku.udn.vn</t>
+          <t>hieunv2.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -3559,17 +3559,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>LÊ KIM HOÀNG TRUNG</t>
+          <t>NGUYỄN VĂN HIẾU</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3588,27 +3588,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>21IT041</t>
+          <t>21IT011</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NGUYỄN THIỆN QUANG</t>
+          <t>TRẦN KHÁNH DIỄN</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>quangnt.21it@vku.udn.vn</t>
+          <t>dientk.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -3616,17 +3616,17 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>NGUYỄN THIỆN QUANG</t>
+          <t>TRẦN KHÁNH DIỄN</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3645,27 +3645,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>21IT006</t>
+          <t>21IT007</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LÊ NGUYỄN VĂN CƯỜNG</t>
+          <t>NGUYỄN ĐẠI CƯỜNG</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cuonglnv.21it@vku.udn.vn</t>
+          <t>cuongnd.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3673,17 +3673,17 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>LÊ NGUYỄN VĂN CƯỜNG</t>
+          <t>NGUYỄN ĐẠI CƯỜNG</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>21IT018</t>
+          <t>21IT019</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LÊ VĂN HẢI</t>
+          <t>NGUYỄN HUY HOÀNG</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>hailv2.21it@vku.udn.vn</t>
+          <t>hoangnh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -3730,17 +3730,17 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>LÊ VĂN HẢI</t>
+          <t>NGUYỄN HUY HOÀNG</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3759,27 +3759,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>21IT026</t>
+          <t>21IT018</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PHẠM ĐĂNG KHOA</t>
+          <t>LÊ VĂN HẢI</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>khoapd.21it@vku.udn.vn</t>
+          <t>hailv2.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3787,17 +3787,17 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>PHẠM ĐĂNG KHOA</t>
+          <t>LÊ VĂN HẢI</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3816,27 +3816,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>21IT304</t>
+          <t>21IT015</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN SANG</t>
+          <t>NGUYỄN THÁI KHÁNH DUY</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>sangnt.21it@vku.udn.vn</t>
+          <t>duyntk.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3844,17 +3844,17 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN SANG</t>
+          <t>NGUYỄN THÁI KHÁNH DUY</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3873,27 +3873,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>21IT025</t>
+          <t>21IT057</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VĨNH PHÚC KIẾN KHANG</t>
+          <t>NGUYỄN HỒNG VÂN</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>khangvpk.21it@vku.udn.vn</t>
+          <t>vannh.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -3901,17 +3901,17 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>VĨNH PHÚC KIẾN KHANG</t>
+          <t>NGUYỄN HỒNG VÂN</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3930,27 +3930,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>21IT038</t>
+          <t>21IT036</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HÀ CẢNH HỒNG PHÚC</t>
+          <t>DOÃN CÁT PHÚ</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>phuchch.21it@vku.udn.vn</t>
+          <t>phudc.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -3958,17 +3958,17 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>HÀ CẢNH HỒNG PHÚC</t>
+          <t>DOÃN CÁT PHÚ</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3987,27 +3987,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>21IT055</t>
+          <t>21IT016</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VÕ VĂN TUẤN</t>
+          <t>TRƯƠNG THỊ HƯƠNG GIANG</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>tuanvv.21it@vku.udn.vn</t>
+          <t>giangtth.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -4015,17 +4015,17 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>VÕ VĂN TUẤN</t>
+          <t>TRƯƠNG THỊ HƯƠNG GIANG</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4044,27 +4044,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>21IT012</t>
+          <t>21IT022</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN DŨNG</t>
+          <t>LÊ THỪA QUỐC HUY</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>dungnv.21it@vku.udn.vn</t>
+          <t>huyltq.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -4072,17 +4072,17 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>NGUYỄN VĂN DŨNG</t>
+          <t>LÊ THỪA QUỐC HUY</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4101,27 +4101,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>21IT031</t>
+          <t>21IT552</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CAO MY NA</t>
+          <t>TRẦN DUY BẢO HOÀNG</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>nacm.21it@vku.udn.vn</t>
+          <t>hoangtdb.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -4129,17 +4129,17 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>CAO MY NA</t>
+          <t>TRẦN DUY BẢO HOÀNG</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4158,27 +4158,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>21IT043</t>
+          <t>21IT020</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PHÙNG ANH SANG</t>
+          <t>NGUYỄN VĂN HÙNG</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>sangpa.21it@vku.udn.vn</t>
+          <t>hungnv.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -4186,17 +4186,17 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>PHÙNG ANH SANG</t>
+          <t>NGUYỄN VĂN HÙNG</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4215,27 +4215,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>21IT393</t>
+          <t>21IT028</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TRẦN VĂN ĐỨC ANH</t>
+          <t>LÊ BẢO MINH</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>anhtvd.21it@vku.udn.vn</t>
+          <t>minhlb.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -4243,17 +4243,17 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>TRẦN VĂN ĐỨC ANH</t>
+          <t>LÊ BẢO MINH</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4272,27 +4272,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>21IT024</t>
+          <t>21IT138</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VÕ TẤN HUY</t>
+          <t>ĐÀM NGUYÊN HOÀNG</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>huyvt.21it@vku.udn.vn</t>
+          <t>hoangdn.21it@vku.udn.vn</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (IT) (1)_GIT,SE_Design a web/app project for customers_TA</t>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>1_GIT</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Đinh Thị Đông Phương</t>
+          <t>Dương Thị Mai Nga</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>VÕ TẤN HUY</t>
+          <t>ĐÀM NGUYÊN HOÀNG</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>chuyen-de-2-it-1-git-se-design-a-web-app-project-for-customers-ta</t>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4319,6 +4319,177 @@
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>21IT058</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NGUYỄN VĂN THÀNH VINH</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>vinhnvt.21it@vku.udn.vn</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1_GIT</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Dương Thị Mai Nga</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NGUYỄN VĂN THÀNH VINH</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>21IT013</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>TRƯƠNG ĐÌNH DŨNG</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>dungtd.21it@vku.udn.vn</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1_GIT</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Dương Thị Mai Nga</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>TRƯƠNG ĐÌNH DŨNG</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>21IT027</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>TRẦN NHẬT LINH</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>linhtn.21it@vku.udn.vn</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Automat và Ngôn ngữ hình thức (1)_GIT</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1_GIT</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Dương Thị Mai Nga</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>TRẦN NHẬT LINH</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>automat-va-ngon-ngu-hinh-thuc-1-git</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>21IT</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
